--- a/product-definitions/spreadsheet/stability-indices.xlsx
+++ b/product-definitions/spreadsheet/stability-indices.xlsx
@@ -14,12 +14,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="90">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -27,12 +33,6 @@
   </si>
   <si>
     <t>Proposed name</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
   </si>
   <si>
     <t>example value</t>
@@ -358,23 +358,23 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -442,122 +442,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1"/>
     <row r="6" ht="12.0" customHeight="1"/>
@@ -1579,27 +1579,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1631,7 +1631,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="13" ht="12.0" customHeight="1"/>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1717,7 +1717,7 @@
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1811,7 +1811,7 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -1897,7 +1897,7 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1983,7 +1983,7 @@
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -2069,7 +2069,7 @@
       <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C77" s="12">
         <v>1.0</v>
@@ -2227,7 +2227,7 @@
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="11"/>
       <c r="B86" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86" s="12">
         <v>1.0</v>
@@ -2309,7 +2309,7 @@
     <row r="95" ht="12.0" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C95" s="12">
         <v>1.0</v>
@@ -2391,7 +2391,7 @@
     <row r="104" ht="12.0" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C104" s="17">
         <v>1.0</v>
@@ -2473,7 +2473,7 @@
     <row r="113" ht="12.0" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C113" s="17">
         <v>1.0</v>
@@ -2555,7 +2555,7 @@
     <row r="122" ht="12.0" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C122" s="17">
         <v>1.0</v>
@@ -2637,7 +2637,7 @@
     <row r="131" ht="12.0" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C131" s="17">
         <v>1.0</v>
@@ -2719,7 +2719,7 @@
     <row r="140" ht="12.0" customHeight="1">
       <c r="A140" s="11"/>
       <c r="B140" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C140" s="17">
         <v>1.0</v>
@@ -2801,7 +2801,7 @@
     <row r="149" ht="12.0" customHeight="1">
       <c r="A149" s="11"/>
       <c r="B149" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C149" s="17">
         <v>1.0</v>
@@ -2883,7 +2883,7 @@
     <row r="158" ht="12.0" customHeight="1">
       <c r="A158" s="11"/>
       <c r="B158" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C158" s="17">
         <v>1.0</v>
@@ -2965,7 +2965,7 @@
     <row r="167" ht="12.0" customHeight="1">
       <c r="A167" s="11"/>
       <c r="B167" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C167" s="17">
         <v>1.0</v>
@@ -3047,7 +3047,7 @@
     <row r="176" ht="12.0" customHeight="1">
       <c r="A176" s="11"/>
       <c r="B176" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C176" s="17">
         <v>1.0</v>
@@ -3129,7 +3129,7 @@
     <row r="185" ht="12.0" customHeight="1">
       <c r="A185" s="11"/>
       <c r="B185" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C185" s="17">
         <v>1.0</v>
@@ -3211,7 +3211,7 @@
     <row r="194" ht="12.0" customHeight="1">
       <c r="A194" s="11"/>
       <c r="B194" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C194" s="17">
         <v>1.0</v>
@@ -3293,7 +3293,7 @@
     <row r="203" ht="12.0" customHeight="1">
       <c r="A203" s="11"/>
       <c r="B203" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C203" s="17">
         <v>1.0</v>
@@ -3375,7 +3375,7 @@
     <row r="212" ht="12.0" customHeight="1">
       <c r="A212" s="11"/>
       <c r="B212" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C212" s="17">
         <v>1.0</v>
@@ -3457,7 +3457,7 @@
     <row r="221" ht="12.0" customHeight="1">
       <c r="A221" s="11"/>
       <c r="B221" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C221" s="17">
         <v>1.0</v>
@@ -3539,7 +3539,7 @@
     <row r="230" ht="12.0" customHeight="1">
       <c r="A230" s="11"/>
       <c r="B230" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C230" s="17">
         <v>1.0</v>
@@ -3621,7 +3621,7 @@
     <row r="239" ht="12.0" customHeight="1">
       <c r="A239" s="11"/>
       <c r="B239" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C239" s="17">
         <v>1.0</v>
@@ -3703,7 +3703,7 @@
     <row r="248" ht="12.0" customHeight="1">
       <c r="A248" s="11"/>
       <c r="B248" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C248" s="17">
         <v>1.0</v>
